--- a/data/trans_bre/P16A08-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07938668779056589</v>
+        <v>-0.3328125490657909</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.546867173903478</v>
+        <v>1.331557307032223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.512355787938144</v>
+        <v>1.679846224336537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1953047058732813</v>
+        <v>-0.3668183831755304</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.00147337561059872</v>
+        <v>-0.1565474058108324</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3306299732113114</v>
+        <v>0.3077355565980945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3955097866490156</v>
+        <v>0.4639135521138988</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04154008690881303</v>
+        <v>-0.07267635620846193</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.517902876861069</v>
+        <v>3.603532571346269</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.454983987835655</v>
+        <v>5.451888839886343</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.072676712488573</v>
+        <v>5.129368283037143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.462795316483677</v>
+        <v>5.316930163849523</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.683837576252144</v>
+        <v>2.630179246649877</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.18174724992254</v>
+        <v>2.177687133246347</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.219582148476856</v>
+        <v>2.440709051521467</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.462646136380444</v>
+        <v>1.425434662502027</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04968318801215803</v>
+        <v>0.05753017727745253</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5255416224536476</v>
+        <v>0.6745817954257397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6628556526470366</v>
+        <v>-0.6056282444823937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.696250198486443</v>
+        <v>-1.480200804357958</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02762551513324326</v>
+        <v>-0.01078039843292717</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1213519929130757</v>
+        <v>0.166505202600632</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1619634544156719</v>
+        <v>-0.1347942733307996</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3193636835610038</v>
+        <v>-0.2847245559731988</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.06504224239555</v>
+        <v>3.063177668624903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.048554991461716</v>
+        <v>4.2717460366816</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.959250176447008</v>
+        <v>3.108735171068524</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.925738431123802</v>
+        <v>2.190651011620233</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.03598226931396</v>
+        <v>2.187953343049976</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.34980508172453</v>
+        <v>2.22289071600995</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.070026358733043</v>
+        <v>1.066175786802968</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6504529881816398</v>
+        <v>0.8100242282279669</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.4751931912177074</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4681975951356358</v>
+        <v>0.4681975951356356</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.073777531645555</v>
+        <v>-1.112358916680356</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8097614918769745</v>
+        <v>-0.8445513826232227</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3009694874107794</v>
+        <v>-0.3228816365158623</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5084409342795051</v>
+        <v>-0.3512356676676145</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3314253747907882</v>
+        <v>-0.3193815523354865</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1771119769883935</v>
+        <v>-0.1749300183939345</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1119402871649402</v>
+        <v>-0.0891359481420706</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1680427461200779</v>
+        <v>-0.1576195762786076</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.989715921885171</v>
+        <v>1.964430173309641</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.026223858152762</v>
+        <v>3.180079607493803</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.408370196289959</v>
+        <v>3.579459334492745</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.561697978095881</v>
+        <v>2.8378285052605</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9450634662766281</v>
+        <v>0.9490364408231999</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.058023081290083</v>
+        <v>1.102412829389892</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.528134715300284</v>
+        <v>1.601892383888817</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.516850956670736</v>
+        <v>1.565621872436209</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.886788964759474</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.566036458307327</v>
+        <v>2.566036458307325</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.146202136610842</v>
@@ -949,7 +949,7 @@
         <v>1.231855642228722</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.9827729613189903</v>
+        <v>0.9827729613189895</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05830236191203027</v>
+        <v>0.2102839095511682</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.400443512159507</v>
+        <v>-2.421593211664628</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.404770758924893</v>
+        <v>0.2131490048013476</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9114006585297346</v>
+        <v>0.8680475245761092</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07396967200197174</v>
+        <v>-0.05479194504965008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4302651983409186</v>
+        <v>-0.4308633972132711</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09408278132672966</v>
+        <v>-0.02921512788323998</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.205139737676978</v>
+        <v>0.2040087807580511</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.256612295622476</v>
+        <v>5.710803962944188</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.992265497944162</v>
+        <v>3.034716628578928</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.655805174143267</v>
+        <v>5.649455667722704</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.243890331293915</v>
+        <v>4.219312643551721</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.190045375933876</v>
+        <v>3.549245481819828</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.133241738381692</v>
+        <v>1.049067933292285</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.42849750577304</v>
+        <v>3.790980834803162</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.270344279767281</v>
+        <v>2.191018513228798</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.271866373578646</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.592196750168871</v>
+        <v>1.59219675016887</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5866135216807815</v>
@@ -1049,7 +1049,7 @@
         <v>0.7339135225384451</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4705401200549374</v>
+        <v>0.4705401200549369</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5520900922463345</v>
+        <v>0.537484283250859</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.104357356789805</v>
+        <v>1.093024998369177</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.312016187630185</v>
+        <v>1.342421787211694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6235377128645785</v>
+        <v>0.6046361696955408</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1940799446791912</v>
+        <v>0.1724858609651461</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2866154220058787</v>
+        <v>0.2845764214170217</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3618774904907056</v>
+        <v>0.3762459217742266</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1562443265066652</v>
+        <v>0.1511500130092288</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.223715471621927</v>
+        <v>2.338507253201358</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.236503944502881</v>
+        <v>3.094998546768523</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.310984989434277</v>
+        <v>3.243300148579135</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.560523933101158</v>
+        <v>2.604775174653373</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.095238871766008</v>
+        <v>1.088374435982517</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.143614984399302</v>
+        <v>1.098189608342392</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.27029584836245</v>
+        <v>1.1665105518196</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9183317575090055</v>
+        <v>0.9021358248267785</v>
       </c>
     </row>
     <row r="19">
